--- a/Suzhou/metro_network_suzhou.xlsx
+++ b/Suzhou/metro_network_suzhou.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei Zhou\Documents\zhouwei file\Github-Project\VeDa-Public-Transit-Network\Suzhou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EFB10A-FE8D-4F7E-9A72-E6773D7A9C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215BCE8B-4A1A-424B-A231-5840E720A9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="2655" windowWidth="17700" windowHeight="11295" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8055" yWindow="0" windowWidth="14610" windowHeight="12330" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="663">
   <si>
     <t>Update date</t>
   </si>
@@ -2018,6 +2018,9 @@
   </si>
   <si>
     <t>120.597746,31.397481</t>
+  </si>
+  <si>
+    <t>120.567781,31.333255</t>
   </si>
 </sst>
 </file>
@@ -2141,7 +2144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2185,13 +2188,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2519,7 +2521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -6512,8 +6514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6548,7 +6550,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="23" customFormat="1">
+    <row r="2" spans="1:7">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -6649,7 +6651,7 @@
         <v>45472</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>526</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:7">
